--- a/docs/_book/项目施工表.xlsx
+++ b/docs/_book/项目施工表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E65F8-81D2-4E65-A95A-F5AB30B513C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F3BFCA-5B73-403C-9D36-AF85E9E76C95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2505" windowWidth="15810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>WEBAPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,7 +1432,7 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>34</v>
       </c>
       <c r="E51">
-        <v>620</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">

--- a/docs/_book/项目施工表.xlsx
+++ b/docs/_book/项目施工表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F3BFCA-5B73-403C-9D36-AF85E9E76C95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9C3C54-9D9B-4479-A25C-77E339211C09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>WEBAPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,30 @@
   </si>
   <si>
     <t>尾款2676（20%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付定金页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍协议页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍订单额外增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,17 +679,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ58"/>
+  <dimension ref="A1:AJ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="31" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="31" width="11.25" customWidth="1"/>
     <col min="32" max="32" width="11.25" style="7" customWidth="1"/>
     <col min="33" max="36" width="11.25" customWidth="1"/>
   </cols>
@@ -999,15 +1024,15 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>360</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>300</v>
+      </c>
+      <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="AF17" s="11"/>
@@ -1015,12 +1040,12 @@
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1030,12 +1055,12 @@
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1044,15 +1069,15 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>500</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>360</v>
+      </c>
+      <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="AF20" s="11"/>
@@ -1060,12 +1085,12 @@
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1074,103 +1099,103 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>300</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>360</v>
+      </c>
+      <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <v>260</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="AF23" s="11"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>260</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>300</v>
+      </c>
+      <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="AF24" s="11"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
-        <v>280</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>300</v>
+      </c>
+      <c r="F25" s="3">
         <v>1</v>
       </c>
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>280</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>260</v>
+      </c>
+      <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>280</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>260</v>
+      </c>
+      <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="AF27" s="11"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
@@ -1185,7 +1210,7 @@
       <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
@@ -1200,7 +1225,7 @@
       <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
@@ -1215,7 +1240,7 @@
       <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
@@ -1230,11 +1255,11 @@
       <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -1243,15 +1268,13 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1260,13 +1283,13 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -1275,9 +1298,9 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
@@ -1290,13 +1313,13 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -1305,13 +1328,13 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -1320,13 +1343,15 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -1337,7 +1362,7 @@
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
@@ -1351,14 +1376,14 @@
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
-        <v>200</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="C40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>280</v>
+      </c>
+      <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="AF40" s="11"/>
@@ -1366,14 +1391,14 @@
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <v>360</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>260</v>
+      </c>
+      <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="AF41" s="11"/>
@@ -1381,145 +1406,244 @@
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>260</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="11"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>280</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="11"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>300</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="11"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="11"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>360</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="11"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="11"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="11"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
         <v>32</v>
       </c>
-      <c r="E49">
-        <f>SUM(E2:E48)</f>
-        <v>13380</v>
-      </c>
-      <c r="F49">
-        <f>SUM(F2:F48)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
+      <c r="E54">
+        <f>SUM(E2:E53)</f>
+        <v>14840</v>
+      </c>
+      <c r="F54">
+        <f>SUM(F2:F53)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E50">
+      <c r="E55" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E51">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>33</v>
       </c>
-      <c r="E52">
-        <f>SUM(E49:E51)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="E57">
+        <f>SUM(E54:E56)</f>
+        <v>16340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" t="s">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D60" t="s">
         <v>61</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E60" t="s">
         <v>62</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C61" s="1">
         <v>5060</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D61" s="7">
         <v>1518</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="E61" s="7">
+        <v>2530</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C62" s="3">
         <v>4100</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D62" s="7">
         <v>1230</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="E62" s="7">
+        <v>2050</v>
+      </c>
+      <c r="F62" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C63" s="2">
         <v>4220</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D63" s="7">
         <v>1266</v>
+      </c>
+      <c r="E63" s="7">
+        <v>2110</v>
+      </c>
+      <c r="F63" s="4">
+        <v>844</v>
+      </c>
+      <c r="G63">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A2:A42"/>
-    <mergeCell ref="AF2:AF42"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="A2:A47"/>
+    <mergeCell ref="AF2:AF47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
